--- a/biology/Biochimie/Hydroxyacylglutathion_hydrolase/Hydroxyacylglutathion_hydrolase.xlsx
+++ b/biology/Biochimie/Hydroxyacylglutathion_hydrolase/Hydroxyacylglutathion_hydrolase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hydroxyacylglutathion hydrolase, ou glyoxalase II, est une hydrolase qui catalyse la réaction :
 S-(2-hydroxyacyl)glutathion + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   glutathion + un 2-hydroxycarboxylate.
-Cette enzyme fait partie du système glyoxalase où elle intervient après la lactoylglutathion lyase, ou glyoxalase I, pour détoxiquer le méthylglyoxal, un sous-produit du métabolisme cellulaire très réactif susceptible d'endommager les protéines et les acides nucléiques de la cellule. L'action combinée de ces deux enzymes transforme le méthylglyoxal d'abord en (R)-S-lactoylglutathion, puis en D-lactate[1].
+Cette enzyme fait partie du système glyoxalase où elle intervient après la lactoylglutathion lyase, ou glyoxalase I, pour détoxiquer le méthylglyoxal, un sous-produit du métabolisme cellulaire très réactif susceptible d'endommager les protéines et les acides nucléiques de la cellule. L'action combinée de ces deux enzymes transforme le méthylglyoxal d'abord en (R)-S-lactoylglutathion, puis en D-lactate.
 </t>
         </is>
       </c>
